--- a/database/seeds/area_klasifikasi.xlsx
+++ b/database/seeds/area_klasifikasi.xlsx
@@ -5,20 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pengelolaan_aset\database\seeds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Web\laragon\www\pengelolaan_aset\database\seeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D125B4F-E5D6-40A7-84C2-86E44C0314B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D467F8AE-A93D-4A60-9E2E-3ECB14E6727B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="area_klasifikasi" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -351,13 +360,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -376,54 +385,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3:A10" si="0">IF(B3="","","AR" &amp; TEXT(ROW(A3)-1,"0000"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
